--- a/treci_projekat/REZULTATI.xlsx
+++ b/treci_projekat/REZULTATI.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matij\Education\ML\Masinsko_ucenje\treci_projekat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE051F-F8CE-4436-8518-D2CFCEBBE7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D37B40-140C-4BF2-BDED-FF520E7FFD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" xr2:uid="{AA72B0C6-17A7-40B5-A314-F44C0888F164}"/>
+    <workbookView xWindow="57360" yWindow="-240" windowWidth="29280" windowHeight="16680" xr2:uid="{AA72B0C6-17A7-40B5-A314-F44C0888F164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Layers</t>
   </si>
@@ -130,13 +130,28 @@
   </si>
   <si>
     <t>LOG PEAK+LATER</t>
+  </si>
+  <si>
+    <t>SimpleRNN32+D0.2+SimpleRNN16+FC1</t>
+  </si>
+  <si>
+    <t>SGD 0.0005</t>
+  </si>
+  <si>
+    <t>NADAM 0.0005</t>
+  </si>
+  <si>
+    <t>ADAFACTOR 0.0005</t>
+  </si>
+  <si>
+    <t>LION 0.0005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +172,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="4"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -206,11 +247,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,23 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF132AB8-5703-40FE-B992-99BA6CAA9452}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="50.20703125" customWidth="1"/>
-    <col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <col min="2" max="2" width="16.68359375" customWidth="1"/>
     <col min="3" max="3" width="14.5234375" customWidth="1"/>
     <col min="4" max="4" width="6.68359375" customWidth="1"/>
     <col min="5" max="5" width="6.3125" customWidth="1"/>
     <col min="6" max="6" width="11.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -599,7 +652,7 @@
         <v>2.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -628,7 +681,7 @@
         <v>2.578E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -657,7 +710,7 @@
         <v>2.794E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -686,7 +739,7 @@
         <v>2.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,247 +768,259 @@
         <v>2.9589999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
       </c>
       <c r="E7" s="1">
+        <v>512</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.5202000000000001E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.7650999999999997E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.77279799999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.0469999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
         <v>256</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>5.5733999999999999E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>3.7571E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>0.768397</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <v>3.1059999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>32</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>5.6870999999999998E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>3.7991999999999998E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>0.75885100000000005</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <v>3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>150</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>64</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>5.6995999999999998E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>3.8338999999999998E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <v>0.75778999999999996</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="1">
         <v>3.248E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
         <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.7502999999999999E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.8095999999999998E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.75345799999999996</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3.307E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
       </c>
       <c r="F11" s="1">
-        <v>5.9422000000000003E-2</v>
+        <v>5.7502999999999999E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>3.9718999999999997E-2</v>
+        <v>3.8095999999999998E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>0.73673100000000002</v>
+        <v>0.75345799999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>3.5309999999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>3.307E-3</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
         <v>64</v>
       </c>
       <c r="F12" s="1">
+        <v>5.7598999999999997E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.8972E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.75263500000000005</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.3180000000000002E-3</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.9422000000000003E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.9718999999999997E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.73673100000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.5309999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1">
         <v>5.9827999999999999E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
         <v>3.9502000000000002E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H14" s="1">
         <v>0.73312100000000002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I14" s="1">
         <v>3.5790000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1">
-        <v>256</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6.0871000000000001E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.0058999999999997E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.72373399999999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3.705E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1">
-        <v>128</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6.1370000000000001E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3.9956999999999999E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.71918700000000002</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3.7659999999999998E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>80</v>
@@ -964,45 +1029,45 @@
         <v>256</v>
       </c>
       <c r="F15" s="1">
-        <v>6.1669000000000002E-2</v>
+        <v>6.0871000000000001E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>4.6033999999999999E-2</v>
+        <v>4.0058999999999997E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>0.71644200000000002</v>
+        <v>0.72373399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>3.803E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>3.705E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1">
-        <v>6.5518000000000007E-2</v>
+        <v>6.1370000000000001E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>4.7130999999999999E-2</v>
+        <v>3.9956999999999999E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0.67994500000000002</v>
+        <v>0.71918700000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>4.2929999999999999E-3</v>
+        <v>3.7659999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1010,57 +1075,57 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F17" s="1">
-        <v>6.5990999999999994E-2</v>
+        <v>6.1669000000000002E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>4.3397999999999999E-2</v>
+        <v>4.6033999999999999E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>0.67530100000000004</v>
+        <v>0.71644200000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>4.3550000000000004E-3</v>
+        <v>3.803E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
         <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>40</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
       </c>
       <c r="F18" s="1">
-        <v>6.8093000000000001E-2</v>
+        <v>6.5518000000000007E-2</v>
       </c>
       <c r="G18" s="1">
-        <v>4.3843E-2</v>
+        <v>4.7130999999999999E-2</v>
       </c>
       <c r="H18" s="1">
-        <v>0.65428699999999995</v>
+        <v>0.67994500000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>4.6369999999999996E-3</v>
+        <v>4.2929999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1068,97 +1133,274 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
       </c>
       <c r="E19" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1">
-        <v>6.8592E-2</v>
+        <v>6.5990999999999994E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>4.802E-2</v>
+        <v>4.3397999999999999E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>0.64920699999999998</v>
+        <v>0.67530100000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>4.705E-3</v>
+        <v>4.3550000000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1">
-        <v>7.1857000000000004E-2</v>
+        <v>6.6496E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>4.7344999999999998E-2</v>
+        <v>5.0514000000000003E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>0.61501300000000003</v>
+        <v>0.67031399999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>5.1630000000000001E-3</v>
+        <v>4.4219999999999997E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.8093000000000001E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.3843E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.65428699999999995</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.6369999999999996E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.8592E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4.802E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.64920699999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.705E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="E23" s="1">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.1857000000000004E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.7344999999999998E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.61501300000000003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5.1630000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
         <v>70</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E24" s="1">
         <v>64</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F24" s="1">
+        <v>7.4728000000000003E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.8289000000000001E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.58363500000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.5840000000000004E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1">
         <v>7.6579999999999995E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G25" s="1">
         <v>6.0076999999999998E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H25" s="1">
         <v>0.56274500000000005</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I25" s="1">
         <v>5.8640000000000003E-3</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.2108E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6.8396999999999999E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.49733699999999997</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6.7419999999999997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I21" xr:uid="{AF132AB8-5703-40FE-B992-99BA6CAA9452}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-      <sortCondition descending="1" ref="H1:H21"/>
+  <autoFilter ref="A1:I26" xr:uid="{AF132AB8-5703-40FE-B992-99BA6CAA9452}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I26">
+      <sortCondition descending="1" ref="H1:H26"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H21">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1167,8 +1409,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I21">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="I2:I26">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1177,8 +1419,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G21">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G2:G26">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1187,8 +1429,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F2:F26">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
